--- a/html/data/Hoa/arsenal/Player.xlsx
+++ b/html/data/Hoa/arsenal/Player.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="97">
   <si>
     <t>name</t>
   </si>
@@ -53,19 +53,285 @@
   </si>
   <si>
     <t>red card</t>
+  </si>
+  <si>
+    <t>Wojciech Szczesny</t>
+  </si>
+  <si>
+    <t>Goalkeeper</t>
+  </si>
+  <si>
+    <t>18/04/1990</t>
+  </si>
+  <si>
+    <t>Poland</t>
+  </si>
+  <si>
+    <t>1.96 m</t>
+  </si>
+  <si>
+    <t>84kg</t>
+  </si>
+  <si>
+    <t>Mathieu Debuchy</t>
+  </si>
+  <si>
+    <t>Defender</t>
+  </si>
+  <si>
+    <t>28/07/1985</t>
+  </si>
+  <si>
+    <t>France</t>
+  </si>
+  <si>
+    <t>1.77 m</t>
+  </si>
+  <si>
+    <t>Kieran Gibbs</t>
+  </si>
+  <si>
+    <t>26/09/1989</t>
+  </si>
+  <si>
+    <t>England</t>
+  </si>
+  <si>
+    <t>1.78 m</t>
+  </si>
+  <si>
+    <t>Per Mertesacker</t>
+  </si>
+  <si>
+    <t>29/09/1984</t>
+  </si>
+  <si>
+    <t>Germany</t>
+  </si>
+  <si>
+    <t>1.98 </t>
+  </si>
+  <si>
+    <t>Laurent Koscielny</t>
+  </si>
+  <si>
+    <t>1.86 </t>
+  </si>
+  <si>
+    <t>Tomas Rosicky</t>
+  </si>
+  <si>
+    <t>Midfielder</t>
+  </si>
+  <si>
+    <t>Czech Republic</t>
+  </si>
+  <si>
+    <t>1.78 </t>
+  </si>
+  <si>
+    <t>65 </t>
+  </si>
+  <si>
+    <t>Mikel Arteta</t>
+  </si>
+  <si>
+    <t>26/03/1982</t>
+  </si>
+  <si>
+    <t>Spain</t>
+  </si>
+  <si>
+    <t>1.83 </t>
+  </si>
+  <si>
+    <t>64 </t>
+  </si>
+  <si>
+    <t>Lukas Podolski</t>
+  </si>
+  <si>
+    <t>Forward</t>
+  </si>
+  <si>
+    <t>1.82 </t>
+  </si>
+  <si>
+    <t>83 </t>
+  </si>
+  <si>
+    <t>Jack Wilshere</t>
+  </si>
+  <si>
+    <t>1.72 </t>
+  </si>
+  <si>
+    <t>68 </t>
+  </si>
+  <si>
+    <t>Mesut Özil</t>
+  </si>
+  <si>
+    <t>15/10/1988</t>
+  </si>
+  <si>
+    <t>76 </t>
+  </si>
+  <si>
+    <t>Olivier Giroud</t>
+  </si>
+  <si>
+    <t>30/09/1986</t>
+  </si>
+  <si>
+    <t>1.92 </t>
+  </si>
+  <si>
+    <t>88 </t>
+  </si>
+  <si>
+    <t>David Ospina</t>
+  </si>
+  <si>
+    <t>31/08/1988</t>
+  </si>
+  <si>
+    <t>Colombia</t>
+  </si>
+  <si>
+    <t>80 </t>
+  </si>
+  <si>
+    <t>Theo Walcott</t>
+  </si>
+  <si>
+    <t>16/03/1989</t>
+  </si>
+  <si>
+    <t>1.76 </t>
+  </si>
+  <si>
+    <t>Aaron Ramsey</t>
+  </si>
+  <si>
+    <t>26/12/1990</t>
+  </si>
+  <si>
+    <t>Wales</t>
+  </si>
+  <si>
+    <t>1.77 </t>
+  </si>
+  <si>
+    <t>70 </t>
+  </si>
+  <si>
+    <t>Alexis Sánchez</t>
+  </si>
+  <si>
+    <t>19/12/1988</t>
+  </si>
+  <si>
+    <t>Chile</t>
+  </si>
+  <si>
+    <t>1.68 </t>
+  </si>
+  <si>
+    <t>62 </t>
+  </si>
+  <si>
+    <t>Nacho Monreal</t>
+  </si>
+  <si>
+    <t>26/02/1986</t>
+  </si>
+  <si>
+    <t>72 </t>
+  </si>
+  <si>
+    <t>Santiago Cazorla</t>
+  </si>
+  <si>
+    <t>13/12/1984</t>
+  </si>
+  <si>
+    <t>66 </t>
+  </si>
+  <si>
+    <t>Mathieu Flamini</t>
+  </si>
+  <si>
+    <t>Danny Welbeck</t>
+  </si>
+  <si>
+    <t>26/11/1990</t>
+  </si>
+  <si>
+    <t>1.85 </t>
+  </si>
+  <si>
+    <t>73 </t>
+  </si>
+  <si>
+    <t>Vassiriki Abou Diaby</t>
+  </si>
+  <si>
+    <t>Emiliano Martinez</t>
+  </si>
+  <si>
+    <t>Argentina</t>
+  </si>
+  <si>
+    <t>89 </t>
+  </si>
+  <si>
+    <t>Joel Campbell</t>
+  </si>
+  <si>
+    <t>26/06/1992</t>
+  </si>
+  <si>
+    <t>Costa Rica</t>
+  </si>
+  <si>
+    <t>71 </t>
+  </si>
+  <si>
+    <t>Francis Coquelin</t>
+  </si>
+  <si>
+    <t>13/05/1991</t>
+  </si>
+  <si>
+    <t>74 </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF666666"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -106,14 +372,20 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -416,16 +688,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M1"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="A25" sqref="A25:XFD25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="7" max="7" width="12.5703125" customWidth="1"/>
-    <col min="10" max="10" width="11.5703125" customWidth="1"/>
+    <col min="1" max="1" width="28.42578125" customWidth="1"/>
+    <col min="2" max="2" width="20.28515625" customWidth="1"/>
+    <col min="3" max="3" width="6.7109375" customWidth="1"/>
+    <col min="4" max="4" width="17" customWidth="1"/>
+    <col min="5" max="5" width="17.28515625" customWidth="1"/>
+    <col min="6" max="6" width="11.85546875" customWidth="1"/>
+    <col min="7" max="7" width="16.85546875" customWidth="1"/>
+    <col min="8" max="8" width="13.28515625" customWidth="1"/>
+    <col min="9" max="9" width="12.28515625" customWidth="1"/>
+    <col min="10" max="10" width="14.7109375" customWidth="1"/>
+    <col min="11" max="11" width="10.5703125" customWidth="1"/>
     <col min="12" max="12" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -470,7 +751,920 @@
         <v>12</v>
       </c>
     </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" s="3">
+        <v>24</v>
+      </c>
+      <c r="G2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2" s="3">
+        <v>128</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>7</v>
+      </c>
+      <c r="M2" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" s="3">
+        <v>29</v>
+      </c>
+      <c r="G3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="I3" s="3">
+        <v>76</v>
+      </c>
+      <c r="J3" s="3">
+        <v>48</v>
+      </c>
+      <c r="K3" s="3">
+        <v>1</v>
+      </c>
+      <c r="L3" s="3">
+        <v>11</v>
+      </c>
+      <c r="M3" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F4" s="3">
+        <v>25</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="I4">
+        <v>70</v>
+      </c>
+      <c r="J4" s="3">
+        <v>101</v>
+      </c>
+      <c r="K4" s="3">
+        <v>1</v>
+      </c>
+      <c r="L4" s="3">
+        <v>11</v>
+      </c>
+      <c r="M4" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F5" s="4">
+        <v>30</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="I5">
+        <v>90</v>
+      </c>
+      <c r="J5" s="3">
+        <v>105</v>
+      </c>
+      <c r="K5" s="3">
+        <v>5</v>
+      </c>
+      <c r="L5" s="3">
+        <v>10</v>
+      </c>
+      <c r="M5" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B6">
+        <v>6</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" s="5">
+        <v>31329</v>
+      </c>
+      <c r="F6" s="4">
+        <v>29</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="I6" s="3">
+        <v>75</v>
+      </c>
+      <c r="J6" s="3">
+        <v>128</v>
+      </c>
+      <c r="K6" s="3">
+        <v>9</v>
+      </c>
+      <c r="L6" s="3">
+        <v>19</v>
+      </c>
+      <c r="M6" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B7">
+        <v>7</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E7" s="5">
+        <v>29321</v>
+      </c>
+      <c r="F7" s="4">
+        <v>34</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="H7" s="3">
+        <v>1.78</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="J7" s="3">
+        <v>158</v>
+      </c>
+      <c r="K7" s="3">
+        <v>17</v>
+      </c>
+      <c r="L7" s="3">
+        <v>22</v>
+      </c>
+      <c r="M7" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B8">
+        <v>8</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="F8" s="4">
+        <v>2</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="J8" s="3">
+        <v>275</v>
+      </c>
+      <c r="K8" s="3">
+        <v>41</v>
+      </c>
+      <c r="L8" s="3">
+        <v>41</v>
+      </c>
+      <c r="M8" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B9">
+        <v>9</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E9" s="5">
+        <v>31143</v>
+      </c>
+      <c r="F9" s="4">
+        <v>29</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="J9" s="3">
+        <v>60</v>
+      </c>
+      <c r="K9" s="3">
+        <v>19</v>
+      </c>
+      <c r="L9" s="3">
+        <v>1</v>
+      </c>
+      <c r="M9" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B10">
+        <v>10</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E10" s="5">
+        <v>33604</v>
+      </c>
+      <c r="F10" s="4">
+        <v>22</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="J10" s="3">
+        <v>109</v>
+      </c>
+      <c r="K10" s="3">
+        <v>6</v>
+      </c>
+      <c r="L10" s="3">
+        <v>25</v>
+      </c>
+      <c r="M10" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B11">
+        <v>11</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="F11" s="4">
+        <v>26</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="J11" s="3">
+        <v>32</v>
+      </c>
+      <c r="K11" s="3">
+        <v>6</v>
+      </c>
+      <c r="L11" s="3">
+        <v>0</v>
+      </c>
+      <c r="M11" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B12">
+        <v>12</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="F12" s="3">
+        <v>28</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="J12" s="3">
+        <v>77</v>
+      </c>
+      <c r="K12" s="3">
+        <v>31</v>
+      </c>
+      <c r="L12" s="3">
+        <v>8</v>
+      </c>
+      <c r="M12" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B13">
+        <v>13</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="F13" s="3">
+        <v>26</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="I13" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="J13" s="3">
+        <v>0</v>
+      </c>
+      <c r="K13" s="3">
+        <v>0</v>
+      </c>
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B14">
+        <v>14</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="F14" s="3">
+        <v>25</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="J14" s="3">
+        <v>196</v>
+      </c>
+      <c r="K14" s="3">
+        <v>45</v>
+      </c>
+      <c r="L14" s="3">
+        <v>5</v>
+      </c>
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B15">
+        <v>16</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="F15" s="3">
+        <v>23</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="J15" s="3">
+        <v>141</v>
+      </c>
+      <c r="K15" s="3">
+        <v>20</v>
+      </c>
+      <c r="L15" s="3">
+        <v>15</v>
+      </c>
+      <c r="M15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B16">
+        <v>17</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="F16" s="3">
+        <v>25</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="I16" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="J16" s="3">
+        <v>15</v>
+      </c>
+      <c r="K16" s="3">
+        <v>9</v>
+      </c>
+      <c r="L16" s="3">
+        <v>2</v>
+      </c>
+      <c r="M16" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B17">
+        <v>18</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="F17" s="3">
+        <v>28</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="I17" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="J17" s="3">
+        <v>44</v>
+      </c>
+      <c r="K17" s="3">
+        <v>1</v>
+      </c>
+      <c r="L17" s="3">
+        <v>5</v>
+      </c>
+      <c r="M17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B18">
+        <v>19</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="F18" s="3">
+        <v>30</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="I18" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="J18" s="3">
+        <v>84</v>
+      </c>
+      <c r="K18" s="3">
+        <v>19</v>
+      </c>
+      <c r="L18" s="3">
+        <v>6</v>
+      </c>
+      <c r="M18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B19">
+        <v>20</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E19" s="5">
+        <v>30866</v>
+      </c>
+      <c r="F19" s="3">
+        <v>30</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H19" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="I19">
+        <v>67</v>
+      </c>
+      <c r="J19" s="3">
+        <v>142</v>
+      </c>
+      <c r="K19" s="3">
+        <v>9</v>
+      </c>
+      <c r="L19" s="3">
+        <v>23</v>
+      </c>
+      <c r="M19" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B20">
+        <v>23</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="F20" s="3">
+        <v>24</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="I20" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="J20" s="3">
+        <v>13</v>
+      </c>
+      <c r="K20" s="3">
+        <v>3</v>
+      </c>
+      <c r="L20" s="3">
+        <v>2</v>
+      </c>
+      <c r="M20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B21">
+        <v>24</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E21" s="5">
+        <v>31721</v>
+      </c>
+      <c r="F21" s="3">
+        <v>28</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H21" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="I21">
+        <v>74</v>
+      </c>
+      <c r="J21" s="3">
+        <v>124</v>
+      </c>
+      <c r="K21" s="3">
+        <v>14</v>
+      </c>
+      <c r="L21" s="3">
+        <v>14</v>
+      </c>
+      <c r="M21" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B22">
+        <v>26</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E22" s="5">
+        <v>33643</v>
+      </c>
+      <c r="F22" s="3">
+        <v>22</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="I22" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="J22" s="3">
+        <v>4</v>
+      </c>
+      <c r="K22" s="3">
+        <v>0</v>
+      </c>
+      <c r="L22" s="3">
+        <v>0</v>
+      </c>
+      <c r="M22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B23">
+        <v>28</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="F23" s="3">
+        <v>22</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="H23" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="I23" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="J23" s="3">
+        <v>3</v>
+      </c>
+      <c r="K23" s="3">
+        <v>0</v>
+      </c>
+      <c r="L23" s="3">
+        <v>0</v>
+      </c>
+      <c r="M23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B24">
+        <v>34</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="F24" s="3">
+        <v>23</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H24" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="I24" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="J24" s="3">
+        <v>22</v>
+      </c>
+      <c r="K24" s="3">
+        <v>0</v>
+      </c>
+      <c r="L24" s="3">
+        <v>2</v>
+      </c>
+      <c r="M24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A25" s="2"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
+      <c r="J25" s="3"/>
+      <c r="K25" s="3"/>
+      <c r="L25" s="3"/>
+      <c r="M25" s="3"/>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" display="http://www.premierleague.com/en-gb/players/profile.overview.html/wojciech-szczesny"/>
+    <hyperlink ref="A3" r:id="rId2" display="http://www.premierleague.com/en-gb/players/profile.overview.html/mathieu-debuchy"/>
+    <hyperlink ref="A4" r:id="rId3" display="http://www.premierleague.com/en-gb/players/profile.overview.html/kieran-gibbs"/>
+    <hyperlink ref="A5" r:id="rId4" display="http://www.premierleague.com/en-gb/players/profile.overview.html/per-mertesacker"/>
+    <hyperlink ref="A6" r:id="rId5" display="http://www.premierleague.com/en-gb/players/profile.overview.html/laurent-koscielny"/>
+    <hyperlink ref="A7" r:id="rId6" display="http://www.premierleague.com/en-gb/players/profile.overview.html/tomas-rosicky"/>
+    <hyperlink ref="A8" r:id="rId7" display="http://www.premierleague.com/en-gb/players/profile.overview.html/mikel-arteta"/>
+    <hyperlink ref="A9" r:id="rId8" display="http://www.premierleague.com/en-gb/players/profile.overview.html/lukas-podolski"/>
+    <hyperlink ref="A10" r:id="rId9" display="http://www.premierleague.com/en-gb/players/profile.overview.html/jack-wilshere"/>
+    <hyperlink ref="A11" r:id="rId10" display="http://www.premierleague.com/en-gb/players/profile.overview.html/mesut-ozil"/>
+    <hyperlink ref="A12" r:id="rId11" display="http://www.premierleague.com/en-gb/players/profile.overview.html/olivier-giroud"/>
+    <hyperlink ref="A13" r:id="rId12" display="http://www.premierleague.com/en-gb/players/profile.overview.html/david-ospina"/>
+    <hyperlink ref="A14" r:id="rId13" display="http://www.premierleague.com/en-gb/players/profile.overview.html/theo-walcott"/>
+    <hyperlink ref="A15" r:id="rId14" display="http://www.premierleague.com/en-gb/players/profile.overview.html/aaron-ramsey"/>
+    <hyperlink ref="A16" r:id="rId15" display="http://www.premierleague.com/en-gb/players/profile.overview.html/alexis-sanchez"/>
+    <hyperlink ref="A17" r:id="rId16" display="http://www.premierleague.com/en-gb/players/profile.overview.html/nacho-monreal"/>
+    <hyperlink ref="A18" r:id="rId17" display="http://www.premierleague.com/en-gb/players/profile.overview.html/santiago-cazorla"/>
+    <hyperlink ref="A19" r:id="rId18" display="http://www.premierleague.com/en-gb/players/profile.overview.html/mathieu-flamini"/>
+    <hyperlink ref="A20" r:id="rId19" display="http://www.premierleague.com/en-gb/players/profile.overview.html/danny-welbeck"/>
+    <hyperlink ref="A21" r:id="rId20" display="http://www.premierleague.com/en-gb/players/profile.overview.html/vassiriki-abou-diaby"/>
+    <hyperlink ref="A22" r:id="rId21" display="http://www.premierleague.com/en-gb/players/profile.overview.html/damian-martinez-2"/>
+    <hyperlink ref="A23" r:id="rId22" display="http://www.premierleague.com/en-gb/players/profile.overview.html/joel-campbell"/>
+    <hyperlink ref="A24" r:id="rId23" display="http://www.premierleague.com/en-gb/players/profile.overview.html/francis-coquelin"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId24"/>
 </worksheet>
 </file>
--- a/html/data/Hoa/arsenal/Player.xlsx
+++ b/html/data/Hoa/arsenal/Player.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="121">
   <si>
     <t>name</t>
   </si>
@@ -305,6 +305,78 @@
   </si>
   <si>
     <t>74 </t>
+  </si>
+  <si>
+    <t>image</t>
+  </si>
+  <si>
+    <t>http://www.arsenal.com/assets/_files/scaled/794x500/jul_14/gun__1405066569_szczesny_profile1415.jpg</t>
+  </si>
+  <si>
+    <t>http://www.arsenal.com/assets/_files/scaled/794x500/jul_14/gun__1405674840_player_profile_debuchy.jpg</t>
+  </si>
+  <si>
+    <t>http://www.arsenal.com/assets/_files/scaled/794x500/jul_14/gun__1405066860_gibbs_profile1415.jpg</t>
+  </si>
+  <si>
+    <t>http://www.arsenal.com/assets/_files/scaled/794x500/jul_14/gun__1405066761_mertesacker_profile1415.jpg</t>
+  </si>
+  <si>
+    <t>http://www.arsenal.com/assets/_files/scaled/794x500/jul_14/gun__1405066746_koscielny_profile1415.jpg</t>
+  </si>
+  <si>
+    <t>http://www.arsenal.com/assets/_files/scaled/794x500/jul_14/gun__1405066941_rosicky_profile1415.jpg</t>
+  </si>
+  <si>
+    <t>http://www.arsenal.com/assets/_files/scaled/794x500/jul_14/gun__1405066643_arteta_profile1415.jpg</t>
+  </si>
+  <si>
+    <t>http://www.arsenal.com/assets/_files/scaled/794x500/jul_14/gun__1405066898_podolski_profile1415.jpg</t>
+  </si>
+  <si>
+    <t>http://www.arsenal.com/assets/_files/scaled/794x500/jul_14/gun__1405067013_wilshere_profile1415.jpg</t>
+  </si>
+  <si>
+    <t>http://www.arsenal.com/assets/_files/scaled/794x500/jul_14/gun__1405066885_ozil_profile1415.jpg</t>
+  </si>
+  <si>
+    <t>http://www.arsenal.com/assets/_files/scaled/794x500/jul_14/gun__1405066703_giroud_profile1415.jpg</t>
+  </si>
+  <si>
+    <t>http://www.arsenal.com/assets/_files/scaled/794x500/jul_14/gun__1406550914_player_ospina.jpg</t>
+  </si>
+  <si>
+    <t>http://www.arsenal.com/assets/_files/scaled/794x500/jul_14/gun__1405067000_walcott_profile1415.jpg</t>
+  </si>
+  <si>
+    <t>http://www.arsenal.com/assets/_files/scaled/794x500/jul_14/gun__1405066915_ramsey_profile1415.jpg</t>
+  </si>
+  <si>
+    <t>http://www.arsenal.com/assets/_files/scaled/794x500/jul_14/gun__1405071837_sanchez_profile1415.jpg</t>
+  </si>
+  <si>
+    <t>http://www.arsenal.com/assets/_files/scaled/794x500/jul_14/gun__1405677467_player_monreal.jpg</t>
+  </si>
+  <si>
+    <t>http://www.arsenal.com/assets/_files/scaled/794x500/jul_14/gun__1405066660_cazorla_profile1415.jpg</t>
+  </si>
+  <si>
+    <t>http://www.arsenal.com/assets/_files/scaled/794x500/jul_14/gun__1405066689_flamini_profile1415.jpg</t>
+  </si>
+  <si>
+    <t>http://www.arsenal.com/assets/_files/scaled/794x500/sep_14/gun__1409735703_player_profile_welbeck.jpg</t>
+  </si>
+  <si>
+    <t>http://www.arsenal.com/assets/_files/scaled/794x500/jul_14/gun__1405066675_diaby_profile1415.jpg</t>
+  </si>
+  <si>
+    <t>http://www.arsenal.com/assets/_files/scaled/794x500/aug_14/gun__1407848836_26.jpeg</t>
+  </si>
+  <si>
+    <t>http://www.arsenal.com/assets/_files/scaled/794x500/sep_14/gun__1411641071_player_campbell.jpg</t>
+  </si>
+  <si>
+    <t>http://www.arsenal.com/assets/_files/scaled/794x500/sep_14/gun__1411641044_player_coquelin.jpg</t>
   </si>
 </sst>
 </file>
@@ -688,16 +760,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:N25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25:XFD25"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="N24" sqref="N24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="28.42578125" customWidth="1"/>
-    <col min="2" max="2" width="20.28515625" customWidth="1"/>
+    <col min="2" max="2" width="11.85546875" customWidth="1"/>
     <col min="3" max="3" width="6.7109375" customWidth="1"/>
     <col min="4" max="4" width="17" customWidth="1"/>
     <col min="5" max="5" width="17.28515625" customWidth="1"/>
@@ -708,9 +780,10 @@
     <col min="10" max="10" width="14.7109375" customWidth="1"/>
     <col min="11" max="11" width="10.5703125" customWidth="1"/>
     <col min="12" max="12" width="11.42578125" customWidth="1"/>
+    <col min="14" max="14" width="39.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -750,8 +823,11 @@
       <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N1" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>13</v>
       </c>
@@ -788,8 +864,11 @@
       <c r="M2" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>19</v>
       </c>
@@ -826,8 +905,11 @@
       <c r="M3" s="3">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>24</v>
       </c>
@@ -864,8 +946,11 @@
       <c r="M4" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N4" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>28</v>
       </c>
@@ -902,8 +987,11 @@
       <c r="M5" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N5" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>32</v>
       </c>
@@ -940,8 +1028,11 @@
       <c r="M6" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N6" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>34</v>
       </c>
@@ -978,8 +1069,11 @@
       <c r="M7" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N7" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>39</v>
       </c>
@@ -1016,8 +1110,11 @@
       <c r="M8" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N8" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>44</v>
       </c>
@@ -1054,8 +1151,11 @@
       <c r="M9" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N9" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>48</v>
       </c>
@@ -1092,8 +1192,11 @@
       <c r="M10" s="3">
         <v>2</v>
       </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N10" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>51</v>
       </c>
@@ -1130,8 +1233,11 @@
       <c r="M11" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N11" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>54</v>
       </c>
@@ -1168,8 +1274,11 @@
       <c r="M12" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N12" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>58</v>
       </c>
@@ -1206,8 +1315,11 @@
       <c r="M13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N13" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>62</v>
       </c>
@@ -1244,8 +1356,11 @@
       <c r="M14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N14" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>65</v>
       </c>
@@ -1282,8 +1397,11 @@
       <c r="M15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N15" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>70</v>
       </c>
@@ -1320,8 +1438,11 @@
       <c r="M16" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N16" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>75</v>
       </c>
@@ -1358,8 +1479,11 @@
       <c r="M17" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N17" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>78</v>
       </c>
@@ -1396,8 +1520,11 @@
       <c r="M18" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N18" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>81</v>
       </c>
@@ -1434,8 +1561,11 @@
       <c r="M19" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N19" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>82</v>
       </c>
@@ -1472,8 +1602,11 @@
       <c r="M20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N20" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>86</v>
       </c>
@@ -1510,8 +1643,11 @@
       <c r="M21" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N21" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>87</v>
       </c>
@@ -1548,8 +1684,11 @@
       <c r="M22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N22" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>90</v>
       </c>
@@ -1586,8 +1725,11 @@
       <c r="M23" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N23" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>94</v>
       </c>
@@ -1624,8 +1766,11 @@
       <c r="M24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N24" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" s="2"/>
       <c r="D25" s="3"/>
       <c r="E25" s="5"/>
